--- a/trend_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/trend_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>site name</t>
   </si>
@@ -109,28 +109,28 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,31 +606,31 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.594822470398698</v>
+        <v>0.8037682089053571</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.612150837988827</v>
       </c>
       <c r="L2">
-        <v>-3.44651955477207</v>
+        <v>-4.31981428062584</v>
       </c>
       <c r="M2">
-        <v>1.71718452014196</v>
+        <v>0.315073909153424</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-11.7721314997851</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -674,34 +674,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.295363868574241</v>
+        <v>0.340029240837982</v>
       </c>
       <c r="G3">
-        <v>0.214285714285714</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.678571428571429</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>29.5</v>
+        <v>20.8</v>
       </c>
       <c r="K3">
-        <v>1.39612216322374</v>
+        <v>1.30446428571429</v>
       </c>
       <c r="L3">
-        <v>-3.69966141152995</v>
+        <v>-7.06703580854587</v>
       </c>
       <c r="M3">
-        <v>18.2377997235554</v>
+        <v>9.42021171841529</v>
       </c>
       <c r="N3">
-        <v>4.73261750245336</v>
+        <v>6.27146291208791</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0.621180132394309</v>
+        <v>0.800696807311481</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0613594052853762</v>
+        <v>0.0385016684677733</v>
       </c>
       <c r="K4">
-        <v>-0.0026218352573494</v>
+        <v>-0.0056368231851326</v>
       </c>
       <c r="L4">
-        <v>-0.0193618330185624</v>
+        <v>-0.0213986101204763</v>
       </c>
       <c r="M4">
-        <v>0.0225186704127361</v>
+        <v>0.0069380404898446</v>
       </c>
       <c r="N4">
-        <v>-4.27291504074322</v>
+        <v>-14.6404647109016</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -819,13 +819,13 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>0.491642629327373</v>
+        <v>0.438966211368211</v>
       </c>
       <c r="G5">
-        <v>0.464285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.571428571428571</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0008925872485041</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0025530902841065</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1792442.71298</v>
@@ -887,34 +887,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>0.018109682326382</v>
+        <v>0.151022799495798</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.961538461538462</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.005000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="K6">
-        <v>-0.20417701863354</v>
+        <v>-0.110496110433191</v>
       </c>
       <c r="L6">
-        <v>-0.336539609557615</v>
+        <v>-0.259525294686835</v>
       </c>
       <c r="M6">
-        <v>-0.0539200597230299</v>
+        <v>0.0882365899845154</v>
       </c>
       <c r="N6">
-        <v>-2.55061859629657</v>
+        <v>-1.40401665099353</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
@@ -955,40 +955,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>0.263584965187172</v>
+        <v>0.869528245128273</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.964285714285714</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.21</v>
+        <v>2.125</v>
       </c>
       <c r="K7">
-        <v>0.119453803771986</v>
+        <v>-0.156312410841655</v>
       </c>
       <c r="L7">
-        <v>-0.139214247680185</v>
+        <v>-0.42313355145085</v>
       </c>
       <c r="M7">
-        <v>0.319157666436244</v>
+        <v>0.120430739080225</v>
       </c>
       <c r="N7">
-        <v>5.40514949194505</v>
+        <v>-7.35587815725434</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7">
         <v>1792442.71298</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>0.398653170199491</v>
+        <v>0.949640186617743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1041,25 +1041,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2695</v>
+        <v>0.221</v>
       </c>
       <c r="K8">
-        <v>0.0073247967479674</v>
+        <v>-0.0433906015037594</v>
       </c>
       <c r="L8">
-        <v>-0.066876613708531</v>
+        <v>-0.182934698993399</v>
       </c>
       <c r="M8">
-        <v>0.0498357758714217</v>
+        <v>-0.0012405487650615</v>
       </c>
       <c r="N8">
-        <v>2.71792087123098</v>
+        <v>-19.6337563365427</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1792442.71298</v>
@@ -1097,31 +1097,31 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.402530437297578</v>
+        <v>0.576043663814382</v>
       </c>
       <c r="G9">
-        <v>0.225</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="H9">
-        <v>0.675</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.477171962183603</v>
+        <v>-0.577139097970757</v>
       </c>
       <c r="M9">
-        <v>1.21524685403695</v>
+        <v>0.480776851264581</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9">
         <v>1792442.71298</v>
@@ -1168,34 +1168,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.323943217149307</v>
+        <v>0.39876153652261</v>
       </c>
       <c r="G10">
-        <v>0.175</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="H10">
-        <v>0.575</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>27.6</v>
       </c>
       <c r="K10">
-        <v>0.595345063526963</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-2.34877593601623</v>
+        <v>-2.35758985006458</v>
       </c>
       <c r="M10">
-        <v>6.47194007592402</v>
+        <v>3.56484089356041</v>
       </c>
       <c r="N10">
-        <v>1.86045332352176</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
@@ -1230,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1242,37 +1242,37 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>0.152563692229071</v>
+        <v>0.779241369967332</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.441860465116279</v>
       </c>
       <c r="H11">
-        <v>0.925</v>
+        <v>0.558139534883721</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>2.125</v>
+        <v>0.01</v>
       </c>
       <c r="K11">
-        <v>0.06700640024038471</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0360817268272641</v>
+        <v>-0.0021624343764668</v>
       </c>
       <c r="M11">
-        <v>0.173203144235335</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.1532423642534</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
         <v>1792442.71298</v>
@@ -1293,7 +1293,7 @@
         <v>42</v>
       </c>
       <c r="W11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1301,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>0.07264389454763361</v>
+        <v>0.629855068368372</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.242</v>
+        <v>2.035</v>
       </c>
       <c r="K12">
-        <v>0.0167202152246787</v>
+        <v>-0.0100786423841059</v>
       </c>
       <c r="L12">
-        <v>-0.0036660889031224</v>
+        <v>-0.08288620750157449</v>
       </c>
       <c r="M12">
-        <v>0.033680874113931</v>
+        <v>0.0788353769194214</v>
       </c>
       <c r="N12">
-        <v>6.90917984490854</v>
+        <v>-0.495264982019947</v>
       </c>
       <c r="O12" t="s">
         <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q12">
         <v>1792442.71298</v>
@@ -1364,6 +1364,77 @@
         <v>42</v>
       </c>
       <c r="W12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.395463035778494</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.2115</v>
+      </c>
+      <c r="K13">
+        <v>0.00254332688588</v>
+      </c>
+      <c r="L13">
+        <v>-0.0211104331421039</v>
+      </c>
+      <c r="M13">
+        <v>0.0173026868470433</v>
+      </c>
+      <c r="N13">
+        <v>1.20251862216552</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13">
+        <v>1792442.71298</v>
+      </c>
+      <c r="R13">
+        <v>5531867.42326</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/trend_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/trend_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Pukepuke Lagoon</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>West_6</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,40 +609,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.8037682089053571</v>
+        <v>0.899551684037517</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.2</v>
+        <v>0.0009</v>
       </c>
       <c r="K2">
-        <v>-0.612150837988827</v>
+        <v>-0.0004509259259259</v>
       </c>
       <c r="L2">
-        <v>-4.31981428062584</v>
+        <v>-0.0535497164232083</v>
       </c>
       <c r="M2">
-        <v>0.315073909153424</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-11.7721314997851</v>
+        <v>-50.1028806584362</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2">
         <v>1792442.71298</v>
@@ -645,19 +651,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -677,34 +683,34 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.340029240837982</v>
+        <v>0.8037682089053571</v>
       </c>
       <c r="G3">
-        <v>0.166666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="K3">
-        <v>1.30446428571429</v>
+        <v>-0.612150837988827</v>
       </c>
       <c r="L3">
-        <v>-7.06703580854587</v>
+        <v>-4.31981428062584</v>
       </c>
       <c r="M3">
-        <v>9.42021171841529</v>
+        <v>0.315073909153424</v>
       </c>
       <c r="N3">
-        <v>6.27146291208791</v>
+        <v>-11.7721314997851</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -716,19 +722,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -745,40 +751,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.800696807311481</v>
+        <v>0.340029240837982</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0385016684677733</v>
+        <v>20.8</v>
       </c>
       <c r="K4">
-        <v>-0.0056368231851326</v>
+        <v>1.30446428571429</v>
       </c>
       <c r="L4">
-        <v>-0.0213986101204763</v>
+        <v>-7.06703580854587</v>
       </c>
       <c r="M4">
-        <v>0.0069380404898446</v>
+        <v>9.42021171841529</v>
       </c>
       <c r="N4">
-        <v>-14.6404647109016</v>
+        <v>6.27146291208791</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1792442.71298</v>
@@ -787,19 +793,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -816,37 +822,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.438966211368211</v>
+        <v>0.800696807311481</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.566666666666667</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008</v>
+        <v>0.0385016684677733</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0056368231851326</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0213986101204763</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0069380404898446</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-14.6404647109016</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
@@ -858,19 +864,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -887,37 +893,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>0.151022799495798</v>
+        <v>0.438966211368211</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.931034482758621</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>7.87</v>
+        <v>0.008</v>
       </c>
       <c r="K6">
-        <v>-0.110496110433191</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.259525294686835</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0882365899845154</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-1.40401665099353</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
         <v>37</v>
@@ -929,16 +935,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,40 +964,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.869528245128273</v>
+        <v>0.151022799495798</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.966666666666667</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.125</v>
+        <v>7.87</v>
       </c>
       <c r="K7">
-        <v>-0.156312410841655</v>
+        <v>-0.110496110433191</v>
       </c>
       <c r="L7">
-        <v>-0.42313355145085</v>
+        <v>-0.259525294686835</v>
       </c>
       <c r="M7">
-        <v>0.120430739080225</v>
+        <v>0.0882365899845154</v>
       </c>
       <c r="N7">
-        <v>-7.35587815725434</v>
+        <v>-1.40401665099353</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1792442.71298</v>
@@ -997,19 +1006,16 @@
         <v>5531867.42326</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,40 +1032,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.949640186617743</v>
+        <v>0.869528245128273</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.221</v>
+        <v>2.125</v>
       </c>
       <c r="K8">
-        <v>-0.0433906015037594</v>
+        <v>-0.156312410841655</v>
       </c>
       <c r="L8">
-        <v>-0.182934698993399</v>
+        <v>-0.42313355145085</v>
       </c>
       <c r="M8">
-        <v>-0.0012405487650615</v>
+        <v>0.120430739080225</v>
       </c>
       <c r="N8">
-        <v>-19.6337563365427</v>
+        <v>-7.35587815725434</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q8">
         <v>1792442.71298</v>
@@ -1068,19 +1074,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1088,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1100,37 +1106,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.576043663814382</v>
+        <v>0.949640186617743</v>
       </c>
       <c r="G9">
-        <v>0.260869565217391</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.608695652173913</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.9</v>
+        <v>0.221</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-0.0433906015037594</v>
       </c>
       <c r="L9">
-        <v>-0.577139097970757</v>
+        <v>-0.182934698993399</v>
       </c>
       <c r="M9">
-        <v>0.480776851264581</v>
+        <v>-0.0012405487650615</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>-19.6337563365427</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q9">
         <v>1792442.71298</v>
@@ -1139,19 +1145,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.39876153652261</v>
+        <v>0.576043663814382</v>
       </c>
       <c r="G10">
-        <v>0.152173913043478</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="H10">
         <v>0.608695652173913</v>
@@ -1183,25 +1189,25 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>27.6</v>
+        <v>4.9</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-2.35758985006458</v>
+        <v>-0.577139097970757</v>
       </c>
       <c r="M10">
-        <v>3.56484089356041</v>
+        <v>0.480776851264581</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1792442.71298</v>
@@ -1210,19 +1216,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1230,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1239,40 +1245,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.779241369967332</v>
+        <v>0.39876153652261</v>
       </c>
       <c r="G11">
-        <v>0.441860465116279</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="H11">
-        <v>0.558139534883721</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.01</v>
+        <v>27.6</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0021624343764668</v>
+        <v>-2.35758985006458</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.56484089356041</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>1792442.71298</v>
@@ -1281,19 +1287,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1301,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1310,37 +1316,37 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>0.629855068368372</v>
+        <v>0.779241369967332</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.441860465116279</v>
       </c>
       <c r="H12">
-        <v>0.91304347826087</v>
+        <v>0.558139534883721</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>2.035</v>
+        <v>0.01</v>
       </c>
       <c r="K12">
-        <v>-0.0100786423841059</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.08288620750157449</v>
+        <v>-0.0021624343764668</v>
       </c>
       <c r="M12">
-        <v>0.0788353769194214</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.495264982019947</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
         <v>36</v>
@@ -1352,19 +1358,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,40 +1387,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>0.395463035778494</v>
+        <v>0.629855068368372</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2115</v>
+        <v>2.035</v>
       </c>
       <c r="K13">
-        <v>0.00254332688588</v>
+        <v>-0.0100786423841059</v>
       </c>
       <c r="L13">
-        <v>-0.0211104331421039</v>
+        <v>-0.08288620750157449</v>
       </c>
       <c r="M13">
-        <v>0.0173026868470433</v>
+        <v>0.0788353769194214</v>
       </c>
       <c r="N13">
-        <v>1.20251862216552</v>
+        <v>-0.495264982019947</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q13">
         <v>1792442.71298</v>
@@ -1423,19 +1429,90 @@
         <v>5531867.42326</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>0.395463035778494</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.2115</v>
+      </c>
+      <c r="K14">
+        <v>0.00254332688588</v>
+      </c>
+      <c r="L14">
+        <v>-0.0211104331421039</v>
+      </c>
+      <c r="M14">
+        <v>0.0173026868470433</v>
+      </c>
+      <c r="N14">
+        <v>1.20251862216552</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14">
+        <v>1792442.71298</v>
+      </c>
+      <c r="R14">
+        <v>5531867.42326</v>
+      </c>
+      <c r="S14" t="s">
         <v>40</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T14" t="s">
         <v>41</v>
       </c>
-      <c r="V13" t="s">
+      <c r="U14" t="s">
         <v>42</v>
       </c>
-      <c r="W13" t="s">
-        <v>46</v>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
